--- a/public/files/Table/excel/通讯录.xlsx
+++ b/public/files/Table/excel/通讯录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20070" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="forms" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>id</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>2018-11-12 12:7:48</t>
+  </si>
+  <si>
+    <t>子公司办公室主任联系方式-精简版</t>
   </si>
 </sst>
 </file>
@@ -140,8 +143,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,6 +155,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -159,6 +207,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -168,15 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,29 +239,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,8 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +275,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -241,58 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,31 +308,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,31 +410,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,97 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,8 +505,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,34 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +561,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,7 +595,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,10 +753,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,196 +1107,240 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.75" style="1" customWidth="1"/>
-    <col min="4" max="26" width="30.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="48.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.75" style="2" customWidth="1"/>
+    <col min="4" max="26" width="30.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9" style="2"/>
+    <col min="28" max="28" width="48.75" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:28">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:28">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AB4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:28">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
